--- a/Data_Product/App_Data/QTGN_Gang_Long_Thep.xlsx
+++ b/Data_Product/App_Data/QTGN_Gang_Long_Thep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\DATAPRODUCT\DATAPRODUCT\Data_Product\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Projects\DATAPRODUCT\DATAPRODUCT\Data_Product\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96995FC2-17B3-4E03-8601-52DA61847BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB1043-1032-4E63-83EE-2DF898A4347C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12105" xr2:uid="{51577134-7CEF-4490-9A02-725D1462A1F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">             BẢNG DỮ LIỆU VỀ QTGN GANG LỎNG - THÉP</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>KL Gang Nhận (T)</t>
+  </si>
+  <si>
+    <t>Giờ bắt đầu thổi</t>
   </si>
 </sst>
 </file>
@@ -237,24 +240,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +274,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,256 +651,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC901D94-D8FD-44B6-9D08-9B52821867A9}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q10" activeCellId="1" sqref="Q12 Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="9" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="22.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7"/>
+    <row r="1" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
+    <row r="2" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:29" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="18"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="19"/>
-      <c r="W8" s="12"/>
+    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="19"/>
-      <c r="W9" s="12"/>
+    <row r="9" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="19"/>
-      <c r="W10" s="12"/>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="19"/>
-      <c r="W11" s="12"/>
+    <row r="11" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="X11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data_Product/App_Data/QTGN_Gang_Long_Thep.xlsx
+++ b/Data_Product/App_Data/QTGN_Gang_Long_Thep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Projects\DATAPRODUCT\DATAPRODUCT\Data_Product\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB1043-1032-4E63-83EE-2DF898A4347C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE4B39-BE02-46B2-9143-907ACB79DA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12105" xr2:uid="{51577134-7CEF-4490-9A02-725D1462A1F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">             BẢNG DỮ LIỆU VỀ QTGN GANG LỎNG - THÉP</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Giờ bắt đầu thổi</t>
+  </si>
+  <si>
+    <t>KL gang chia (T)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -274,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC901D94-D8FD-44B6-9D08-9B52821867A9}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,63 +671,65 @@
     <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="22.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="10" width="11.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="22.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="4"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -732,36 +740,38 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="5"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
-    <row r="7" spans="1:29" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -787,41 +797,44 @@
         <v>8</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -831,18 +844,19 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="15"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="13"/>
-      <c r="X8" s="6"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="13"/>
+      <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -852,18 +866,19 @@
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="X9" s="6"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="13"/>
+      <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -878,13 +893,14 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="X10" s="6"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13"/>
+      <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -898,18 +914,19 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="15"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="X11" s="6"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13"/>
+      <c r="Y11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
